--- a/Test/BO/Error_100.xlsx
+++ b/Test/BO/Error_100.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.5654521332096853</v>
+        <v>0.00708250012688838</v>
       </c>
       <c r="B1" t="n">
-        <v>1.154094072294513</v>
+        <v>0.02228206376869935</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2036350778814973</v>
+        <v>0.004822240901004804</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8957614731510294</v>
+        <v>0.0114901896987758</v>
       </c>
       <c r="E1" t="n">
-        <v>0.2176414575932375</v>
+        <v>3.619219341377544e-05</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01303399083114964</v>
+        <v>3.991553991289365e-05</v>
       </c>
       <c r="G1" t="n">
-        <v>0.3019790600165499</v>
+        <v>0.003573735469152739</v>
       </c>
       <c r="H1" t="n">
-        <v>0.971083837747531</v>
+        <v>0.006987477034301026</v>
       </c>
       <c r="I1" t="n">
-        <v>1.064514902696384</v>
+        <v>0.01042352108237088</v>
       </c>
       <c r="J1" t="n">
-        <v>-4.100157727471299e-05</v>
+        <v>2.080948810201377e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_100.xlsx
+++ b/Test/BO/Error_100.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.00708250012688838</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.02228206376869935</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.004822240901004804</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.0114901896987758</v>
-      </c>
-      <c r="E1" t="n">
-        <v>3.619219341377544e-05</v>
-      </c>
-      <c r="F1" t="n">
-        <v>3.991553991289365e-05</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.003573735469152739</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.006987477034301026</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.01042352108237088</v>
-      </c>
-      <c r="J1" t="n">
-        <v>2.080948810201377e-05</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>